--- a/excel/collective/zestawy_dla_uczniow/zestaw_024.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>ZESTAW ZADAŃ NR 24 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Aleksander Grabowski</t>
-  </si>
-  <si>
-    <t>Lena Lis</t>
-  </si>
-  <si>
-    <t>Adam Nowak</t>
-  </si>
-  <si>
-    <t>Jakub Piotrowski</t>
-  </si>
-  <si>
-    <t>Adam Szymański</t>
+    <t>Kacper Wójcik</t>
+  </si>
+  <si>
+    <t>Mikołaj Mazur</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Natalia Malinowska</t>
+  </si>
+  <si>
+    <t>Zuzanna Malinowska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>2,80</t>
+  </si>
+  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,90</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,80</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,10</t>
+    <t>2,90</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,20</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,20</t>
+    <t>4,00</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>17,80</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>7,22</t>
+    <t>8,46</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>6,71</t>
+    <t>20,25</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>3,64</t>
+    <t>25,10</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>7,14</t>
+    <t>5,46</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>30,59</t>
+    <t>27,66</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>10,32</t>
-  </si>
-  <si>
-    <t>3,88</t>
-  </si>
-  <si>
-    <t>13,56</t>
-  </si>
-  <si>
-    <t>10,06</t>
-  </si>
-  <si>
-    <t>17,73</t>
+    <t>17,11</t>
+  </si>
+  <si>
+    <t>4,13</t>
+  </si>
+  <si>
+    <t>12,41</t>
+  </si>
+  <si>
+    <t>25,60</t>
+  </si>
+  <si>
+    <t>23,09</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>29,07</t>
-  </si>
-  <si>
-    <t>30,77</t>
-  </si>
-  <si>
-    <t>28,37</t>
-  </si>
-  <si>
-    <t>16,21</t>
-  </si>
-  <si>
-    <t>1,63</t>
+    <t>3,07</t>
+  </si>
+  <si>
+    <t>21,45</t>
+  </si>
+  <si>
+    <t>8,77</t>
+  </si>
+  <si>
+    <t>7,78</t>
+  </si>
+  <si>
+    <t>11,63</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +340,43 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Zawadzka</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
   </si>
   <si>
     <t>Hanna</t>
   </si>
   <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,154 +412,145 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Lena Maciejewska</t>
-  </si>
-  <si>
-    <t>21.04.1983</t>
-  </si>
-  <si>
-    <t>8 771,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>27.06.1998</t>
-  </si>
-  <si>
-    <t>3 520,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Sikorska</t>
-  </si>
-  <si>
-    <t>27.01.1988</t>
-  </si>
-  <si>
-    <t>7 821,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>20.09.1996</t>
-  </si>
-  <si>
-    <t>6 483,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Czarnecka</t>
-  </si>
-  <si>
-    <t>18.01.1980</t>
-  </si>
-  <si>
-    <t>4 325,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Czarnecka</t>
-  </si>
-  <si>
-    <t>01.05.2002</t>
-  </si>
-  <si>
-    <t>7 962,00 zł</t>
+    <t>Natalia Król</t>
+  </si>
+  <si>
+    <t>23.08.2003</t>
+  </si>
+  <si>
+    <t>13 052,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalski</t>
+  </si>
+  <si>
+    <t>12.02.1993</t>
+  </si>
+  <si>
+    <t>6 752,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Wojciechowski</t>
+  </si>
+  <si>
+    <t>07.02.1996</t>
+  </si>
+  <si>
+    <t>5 615,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Grabowski</t>
+  </si>
+  <si>
+    <t>20.05.1975</t>
+  </si>
+  <si>
+    <t>2 717,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Piekarska</t>
+  </si>
+  <si>
+    <t>12.05.2002</t>
+  </si>
+  <si>
+    <t>5 512,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>27.07.1992</t>
+  </si>
+  <si>
+    <t>14 205,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Maciejewska</t>
+  </si>
+  <si>
+    <t>08.11.1980</t>
+  </si>
+  <si>
+    <t>13 571,00 zł</t>
+  </si>
+  <si>
+    <t>04.03.2003</t>
+  </si>
+  <si>
+    <t>8 027,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Jankowski</t>
+  </si>
+  <si>
+    <t>07.09.1977</t>
+  </si>
+  <si>
+    <t>9 953,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>26.04.1994</t>
+  </si>
+  <si>
+    <t>12 711,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Wójcik</t>
+  </si>
+  <si>
+    <t>28.10.1998</t>
+  </si>
+  <si>
+    <t>4 065,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>16.01.1993</t>
+  </si>
+  <si>
+    <t>12 695,00 zł</t>
   </si>
   <si>
     <t>Julia Borkowska</t>
   </si>
   <si>
-    <t>16.11.1975</t>
-  </si>
-  <si>
-    <t>11 422,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Olszewska</t>
-  </si>
-  <si>
-    <t>20.03.1981</t>
-  </si>
-  <si>
-    <t>14 989,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Olszewska</t>
-  </si>
-  <si>
-    <t>10.11.2003</t>
-  </si>
-  <si>
-    <t>4 520,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Wiśniewski</t>
-  </si>
-  <si>
-    <t>13.01.1995</t>
-  </si>
-  <si>
-    <t>7 651,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Sadowska</t>
-  </si>
-  <si>
-    <t>09.11.1975</t>
-  </si>
-  <si>
-    <t>7 221,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kowalczyk</t>
-  </si>
-  <si>
-    <t>08.04.2003</t>
-  </si>
-  <si>
-    <t>8 572,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kwiatkowski</t>
-  </si>
-  <si>
-    <t>24.11.1998</t>
-  </si>
-  <si>
-    <t>3 709,00 zł</t>
-  </si>
-  <si>
-    <t>28.04.1999</t>
-  </si>
-  <si>
-    <t>9 363,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>01.01.2000</t>
-  </si>
-  <si>
-    <t>4 956,00 zł</t>
+    <t>09.04.1983</t>
+  </si>
+  <si>
+    <t>2 997,00 zł</t>
   </si>
   <si>
     <t>Aleksander Woźniak</t>
   </si>
   <si>
-    <t>01.12.1987</t>
-  </si>
-  <si>
-    <t>12 265,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Piotrowski</t>
-  </si>
-  <si>
-    <t>25.04.1987</t>
-  </si>
-  <si>
-    <t>2 969,00 zł</t>
+    <t>19.11.1994</t>
+  </si>
+  <si>
+    <t>4 481,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Wiśniewski</t>
+  </si>
+  <si>
+    <t>14.09.1998</t>
+  </si>
+  <si>
+    <t>11 556,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalski</t>
+  </si>
+  <si>
+    <t>04.05.1980</t>
+  </si>
+  <si>
+    <t>13 568,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -622,307 +622,310 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 472,00 zł</t>
-  </si>
-  <si>
-    <t>1 825,00 zł</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 183,00 zł</t>
+  </si>
+  <si>
+    <t>1 621,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 499,00 zł</t>
+  </si>
+  <si>
+    <t>2 009,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 027,00 zł</t>
+  </si>
+  <si>
+    <t>1 140,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>588,00 zł</t>
+  </si>
+  <si>
+    <t>694,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>725,00 zł</t>
+  </si>
+  <si>
+    <t>964,00 zł</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>1 344,00 zł</t>
+  </si>
+  <si>
+    <t>1 868,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 372,00 zł</t>
+  </si>
+  <si>
+    <t>1 907,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>1 245,00 zł</t>
+  </si>
+  <si>
+    <t>1 731,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 012,00 zł</t>
+  </si>
+  <si>
+    <t>1 305,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 051,00 zł</t>
-  </si>
-  <si>
-    <t>1 471,00 zł</t>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>804,00 zł</t>
+  </si>
+  <si>
+    <t>1 005,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>618,00 zł</t>
+  </si>
+  <si>
+    <t>698,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>516,00 zł</t>
+  </si>
+  <si>
+    <t>630,00 zł</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 367,00 zł</t>
+  </si>
+  <si>
+    <t>1 709,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 447,00 zł</t>
+  </si>
+  <si>
+    <t>1 693,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 074,00 zł</t>
+  </si>
+  <si>
+    <t>1 203,00 zł</t>
+  </si>
+  <si>
+    <t>888,00 zł</t>
+  </si>
+  <si>
+    <t>1 243,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 742,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 088,00 zł</t>
+  </si>
+  <si>
+    <t>1 240,00 zł</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>1 058,00 zł</t>
+  </si>
+  <si>
+    <t>1 365,00 zł</t>
+  </si>
+  <si>
+    <t>1 215,00 zł</t>
+  </si>
+  <si>
+    <t>1 470,00 zł</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 424,00 zł</t>
+  </si>
+  <si>
+    <t>1 851,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 044,00 zł</t>
-  </si>
-  <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 204,00 zł</t>
+  </si>
+  <si>
+    <t>1 150,00 zł</t>
+  </si>
+  <si>
+    <t>1 518,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 251,00 zł</t>
+  </si>
+  <si>
+    <t>1 614,00 zł</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 004,00 zł</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 011,00 zł</t>
-  </si>
-  <si>
-    <t>1 264,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>1 359,00 zł</t>
-  </si>
-  <si>
-    <t>1 794,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 550,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>884,00 zł</t>
-  </si>
-  <si>
-    <t>1 149,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 012,00 zł</t>
-  </si>
-  <si>
-    <t>1 265,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 409,00 zł</t>
-  </si>
-  <si>
-    <t>1 860,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 314,00 zł</t>
-  </si>
-  <si>
-    <t>1 708,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>994,00 zł</t>
-  </si>
-  <si>
-    <t>1 103,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 037,00 zł</t>
-  </si>
-  <si>
-    <t>1 317,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 393,00 zł</t>
-  </si>
-  <si>
-    <t>1 699,00 zł</t>
-  </si>
-  <si>
-    <t>1 129,00 zł</t>
-  </si>
-  <si>
-    <t>1 569,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>839,00 zł</t>
-  </si>
-  <si>
-    <t>1 024,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>815,00 zł</t>
-  </si>
-  <si>
-    <t>921,00 zł</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>787,00 zł</t>
-  </si>
-  <si>
-    <t>1 055,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 113,00 zł</t>
-  </si>
-  <si>
-    <t>1 514,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>1 612,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 301,00 zł</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 213,00 zł</t>
-  </si>
-  <si>
-    <t>1 638,00 zł</t>
-  </si>
-  <si>
-    <t>1 233,00 zł</t>
-  </si>
-  <si>
-    <t>1 467,00 zł</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>710,00 zł</t>
-  </si>
-  <si>
-    <t>895,00 zł</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 093,00 zł</t>
-  </si>
-  <si>
-    <t>1 421,00 zł</t>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>611,00 zł</t>
+  </si>
+  <si>
+    <t>776,00 zł</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 993,00 zł</t>
-  </si>
-  <si>
-    <t>1 425,00 zł</t>
-  </si>
-  <si>
-    <t>1 838,00 zł</t>
+    <t>1 360,00 zł</t>
+  </si>
+  <si>
+    <t>1 632,00 zł</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>537,00 zł</t>
+  </si>
+  <si>
+    <t>687,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1479,16 +1482,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
@@ -1500,19 +1503,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1521,19 +1524,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1542,19 +1545,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1563,19 +1566,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1584,19 +1587,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6</v>
-      </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1605,19 +1608,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1626,19 +1629,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
       </c>
       <c r="D24" s="3">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1647,19 +1650,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1668,16 +1671,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
       <c r="D26" s="3">
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1689,19 +1692,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1710,16 +1713,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>6</v>
@@ -1844,7 +1847,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1859,7 +1862,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1874,7 +1877,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1889,7 +1892,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1904,7 +1907,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1919,7 +1922,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2036,7 +2039,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2048,7 +2051,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2060,7 +2063,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2072,7 +2075,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2084,7 +2087,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2132,7 +2135,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2144,7 +2147,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2156,7 +2159,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2168,7 +2171,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2180,7 +2183,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2228,7 +2231,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2240,7 +2243,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2252,7 +2255,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2264,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2276,7 +2279,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2310,10 +2313,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2419,25 +2422,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2451,25 +2454,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2477,31 +2480,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2509,28 +2512,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
         <v>5</v>
@@ -2541,16 +2544,16 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
         <v>6</v>
@@ -2559,13 +2562,13 @@
         <v>4</v>
       </c>
       <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
         <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2573,54 +2576,70 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2634,11 +2653,27 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2651,10 +2686,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="A30" sqref="A30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2666,7 +2701,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2676,235 +2711,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="3" t="s">
         <v>176</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>177</v>
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>181</v>
@@ -2912,17 +2944,9 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3069,22 +3093,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3092,22 +3116,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3118,19 +3142,19 @@
         <v>200</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3138,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>222</v>
@@ -3150,10 +3174,10 @@
         <v>224</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3164,7 +3188,7 @@
         <v>226</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>227</v>
@@ -3173,10 +3197,10 @@
         <v>228</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3184,22 +3208,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3207,10 +3231,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>235</v>
@@ -3219,10 +3243,10 @@
         <v>236</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3230,10 +3254,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>239</v>
@@ -3245,7 +3269,7 @@
         <v>241</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3253,22 +3277,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3276,22 +3300,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3299,22 +3323,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3322,7 +3346,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>255</v>
@@ -3337,7 +3361,7 @@
         <v>258</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3345,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>259</v>
@@ -3357,10 +3381,10 @@
         <v>261</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3368,22 +3392,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3391,10 +3415,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>267</v>
@@ -3403,10 +3427,10 @@
         <v>268</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3414,22 +3438,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>270</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3440,19 +3464,19 @@
         <v>200</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3460,22 +3484,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3483,22 +3507,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3506,22 +3530,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3529,22 +3553,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3552,22 +3576,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3575,22 +3599,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="F39" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3598,22 +3622,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3621,22 +3645,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>298</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3644,22 +3668,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3669,7 +3693,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>181</v>
@@ -3677,7 +3701,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>181</v>
@@ -3685,7 +3709,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>181</v>
@@ -3693,7 +3717,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>181</v>
@@ -3701,7 +3725,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>181</v>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_024.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>ZESTAW ZADAŃ NR 24 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 24 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,80</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,90</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,00</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>17,80</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,46</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>20,25</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>25,10</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>5,46</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>27,66</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>17,11</t>
-  </si>
-  <si>
-    <t>4,13</t>
-  </si>
-  <si>
-    <t>12,41</t>
-  </si>
-  <si>
-    <t>25,60</t>
-  </si>
-  <si>
-    <t>23,09</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>3,07</t>
-  </si>
-  <si>
-    <t>21,45</t>
-  </si>
-  <si>
-    <t>8,77</t>
-  </si>
-  <si>
-    <t>7,78</t>
-  </si>
-  <si>
-    <t>11,63</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -418,141 +340,93 @@
     <t>23.08.2003</t>
   </si>
   <si>
-    <t>13 052,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kowalski</t>
   </si>
   <si>
     <t>12.02.1993</t>
   </si>
   <si>
-    <t>6 752,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Wojciechowski</t>
   </si>
   <si>
     <t>07.02.1996</t>
   </si>
   <si>
-    <t>5 615,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Grabowski</t>
   </si>
   <si>
     <t>20.05.1975</t>
   </si>
   <si>
-    <t>2 717,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Piekarska</t>
   </si>
   <si>
     <t>12.05.2002</t>
   </si>
   <si>
-    <t>5 512,00 zł</t>
-  </si>
-  <si>
     <t>Julia Urbaniak</t>
   </si>
   <si>
     <t>27.07.1992</t>
   </si>
   <si>
-    <t>14 205,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Maciejewska</t>
   </si>
   <si>
     <t>08.11.1980</t>
   </si>
   <si>
-    <t>13 571,00 zł</t>
-  </si>
-  <si>
     <t>04.03.2003</t>
   </si>
   <si>
-    <t>8 027,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Jankowski</t>
   </si>
   <si>
     <t>07.09.1977</t>
   </si>
   <si>
-    <t>9 953,00 zł</t>
-  </si>
-  <si>
     <t>Anna Sikorska</t>
   </si>
   <si>
     <t>26.04.1994</t>
   </si>
   <si>
-    <t>12 711,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Wójcik</t>
   </si>
   <si>
     <t>28.10.1998</t>
   </si>
   <si>
-    <t>4 065,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kaczmarek</t>
   </si>
   <si>
     <t>16.01.1993</t>
   </si>
   <si>
-    <t>12 695,00 zł</t>
-  </si>
-  <si>
     <t>Julia Borkowska</t>
   </si>
   <si>
     <t>09.04.1983</t>
   </si>
   <si>
-    <t>2 997,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Woźniak</t>
   </si>
   <si>
     <t>19.11.1994</t>
   </si>
   <si>
-    <t>4 481,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Wiśniewski</t>
   </si>
   <si>
     <t>14.09.1998</t>
   </si>
   <si>
-    <t>11 556,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalski</t>
   </si>
   <si>
     <t>04.05.1980</t>
   </si>
   <si>
-    <t>13 568,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -565,9 +439,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -628,12 +499,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 621,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -646,12 +511,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 499,00 zł</t>
-  </si>
-  <si>
-    <t>2 009,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -664,12 +523,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 027,00 zł</t>
-  </si>
-  <si>
-    <t>1 140,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -679,36 +532,18 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>588,00 zł</t>
-  </si>
-  <si>
-    <t>694,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>725,00 zł</t>
-  </si>
-  <si>
-    <t>964,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>luty</t>
   </si>
   <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>1 868,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -718,33 +553,15 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 372,00 zł</t>
-  </si>
-  <si>
-    <t>1 907,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>1 245,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 012,00 zł</t>
-  </si>
-  <si>
-    <t>1 305,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -754,12 +571,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>804,00 zł</t>
-  </si>
-  <si>
-    <t>1 005,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
@@ -769,45 +580,21 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>618,00 zł</t>
-  </si>
-  <si>
-    <t>698,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>opolskie</t>
   </si>
   <si>
-    <t>516,00 zł</t>
-  </si>
-  <si>
-    <t>630,00 zł</t>
-  </si>
-  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 367,00 zł</t>
-  </si>
-  <si>
-    <t>1 709,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>1 693,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -817,115 +604,43 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 074,00 zł</t>
-  </si>
-  <si>
-    <t>1 203,00 zł</t>
-  </si>
-  <si>
-    <t>888,00 zł</t>
-  </si>
-  <si>
-    <t>1 243,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 742,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 088,00 zł</t>
-  </si>
-  <si>
-    <t>1 240,00 zł</t>
-  </si>
-  <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>1 058,00 zł</t>
-  </si>
-  <si>
-    <t>1 365,00 zł</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 470,00 zł</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 424,00 zł</t>
-  </si>
-  <si>
-    <t>1 851,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 204,00 zł</t>
-  </si>
-  <si>
-    <t>1 150,00 zł</t>
-  </si>
-  <si>
-    <t>1 518,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 251,00 zł</t>
-  </si>
-  <si>
-    <t>1 614,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>611,00 zł</t>
-  </si>
-  <si>
-    <t>776,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 360,00 zł</t>
-  </si>
-  <si>
-    <t>1 632,00 zł</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>537,00 zł</t>
-  </si>
-  <si>
-    <t>687,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -947,7 +662,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1004,14 +721,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1022,8 +739,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1054,30 +771,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,7 +1098,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1455,25 +1173,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1496,7 +1214,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1517,7 +1235,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1538,7 +1256,7 @@
       <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1559,7 +1277,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1580,7 +1298,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1601,7 +1319,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1622,7 +1340,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1643,7 +1361,7 @@
       <c r="F24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1664,7 +1382,7 @@
       <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1685,7 +1403,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1706,7 +1424,7 @@
       <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1727,27 +1445,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1781,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1801,7 +1509,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1811,29 +1519,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1841,99 +1549,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.2</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.5</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.8</v>
       </c>
       <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.9</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
       </c>
       <c r="D17" s="3">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17.8</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1966,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1991,113 +1699,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8.46</v>
       </c>
       <c r="C15" s="3">
         <v>48</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>20.25</v>
       </c>
       <c r="C16" s="3">
         <v>33</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>25.1</v>
       </c>
       <c r="C17" s="3">
         <v>18</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5.46</v>
       </c>
       <c r="C18" s="3">
         <v>32</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>27.66</v>
       </c>
       <c r="C19" s="3">
         <v>27</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2106,94 +1814,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>17.11</v>
       </c>
       <c r="C24" s="3">
         <v>50</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.13</v>
       </c>
       <c r="C25" s="3">
         <v>30</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>12.41</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>25.6</v>
       </c>
       <c r="C27" s="3">
         <v>37</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>23.09</v>
       </c>
       <c r="C28" s="3">
         <v>21</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2202,98 +1910,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3.07</v>
       </c>
       <c r="C33" s="3">
         <v>19</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>21.45</v>
       </c>
       <c r="C34" s="3">
         <v>22</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8.77</v>
       </c>
       <c r="C35" s="3">
         <v>13</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>7.78</v>
       </c>
       <c r="C36" s="3">
         <v>44</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>11.63</v>
       </c>
       <c r="C37" s="3">
         <v>43</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2316,7 +2024,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2336,90 +2044,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2442,16 +2150,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2474,16 +2182,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2506,16 +2214,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2538,16 +2246,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2570,16 +2278,16 @@
       <c r="J16" s="3">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2602,16 +2310,16 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -2634,40 +2342,40 @@
       <c r="J18" s="3">
         <v>4</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2700,126 +2408,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13052</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6752</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5615</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2717</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5512</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14205</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13571</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2827,128 +2535,122 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8027</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9953</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12711</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4065</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12695</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2997</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>130</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4481</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11556</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>176</v>
+        <v>134</v>
+      </c>
+      <c r="C26" s="7">
+        <v>13568</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>177</v>
+      <c r="A29" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2983,86 +2685,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>182</v>
+      <c r="A1" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>199</v>
+      <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3070,22 +2772,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1183</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1621</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3093,22 +2795,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1499</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2009</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3116,22 +2818,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1027</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1140</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3139,22 +2841,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
+      </c>
+      <c r="D19" s="7">
+        <v>588</v>
+      </c>
+      <c r="E19" s="7">
+        <v>694</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3162,22 +2864,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
+      </c>
+      <c r="D20" s="7">
+        <v>725</v>
+      </c>
+      <c r="E20" s="7">
+        <v>964</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3185,22 +2887,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>228</v>
+        <v>171</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1344</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1868</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3208,22 +2910,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1372</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1907</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3231,22 +2933,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>171</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1245</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1731</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3254,22 +2956,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1012</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1305</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3277,22 +2979,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>245</v>
+        <v>182</v>
+      </c>
+      <c r="D25" s="7">
+        <v>804</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1005</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3300,22 +3002,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
+      </c>
+      <c r="D26" s="7">
+        <v>618</v>
+      </c>
+      <c r="E26" s="7">
+        <v>698</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3323,22 +3025,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
+      </c>
+      <c r="D27" s="7">
+        <v>516</v>
+      </c>
+      <c r="E27" s="7">
+        <v>630</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3346,22 +3048,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>257</v>
+        <v>188</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1367</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1709</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3369,22 +3071,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>261</v>
+        <v>190</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1447</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1693</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3392,22 +3094,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1074</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1203</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3415,22 +3117,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>268</v>
+        <v>188</v>
+      </c>
+      <c r="D31" s="7">
+        <v>888</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1243</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3438,22 +3140,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>271</v>
+        <v>195</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1372</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1742</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3461,22 +3163,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>274</v>
+        <v>179</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1088</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1240</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3484,22 +3186,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>277</v>
+        <v>179</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1058</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1365</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3507,22 +3209,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>279</v>
+        <v>158</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1215</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1470</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3530,22 +3232,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>282</v>
+        <v>198</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1424</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1851</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3553,22 +3255,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1012</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1204</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3576,22 +3278,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1150</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1518</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3599,22 +3301,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>291</v>
+        <v>202</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1251</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1614</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3622,22 +3324,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>295</v>
+        <v>204</v>
+      </c>
+      <c r="D40" s="7">
+        <v>611</v>
+      </c>
+      <c r="E40" s="7">
+        <v>776</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3645,22 +3347,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>298</v>
+        <v>205</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1360</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1632</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3668,68 +3370,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>301</v>
+        <v>206</v>
+      </c>
+      <c r="D42" s="7">
+        <v>537</v>
+      </c>
+      <c r="E42" s="7">
+        <v>687</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>177</v>
+      <c r="A45" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>302</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>303</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>304</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>305</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>306</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>181</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_024.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_024.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 24 - CZĘŚĆ 1</t>
   </si>
@@ -61,586 +62,589 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Kacper Wójcik</t>
-  </si>
-  <si>
-    <t>Mikołaj Mazur</t>
+    <t>Kacper Kamiński</t>
+  </si>
+  <si>
+    <t>Emilia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>Oliwia Wilk</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 24 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 24 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna Piekarska</t>
+  </si>
+  <si>
+    <t>Kacper Lewandowski</t>
+  </si>
+  <si>
+    <t>Wojciech Lewandowski</t>
+  </si>
+  <si>
+    <t>Lena Olszewska</t>
+  </si>
+  <si>
+    <t>Zuzanna Czarnecka</t>
+  </si>
+  <si>
+    <t>Emilia Sadowska</t>
+  </si>
+  <si>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
+  </si>
+  <si>
+    <t>Aleksander Wojciechowski</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>Anna Bednarska</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Zuzanna Rogalska</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
+  </si>
+  <si>
+    <t>Amelia Lis</t>
+  </si>
+  <si>
+    <t>Maja Piekarska</t>
+  </si>
+  <si>
+    <t>Oliwia Zawadzka</t>
+  </si>
+  <si>
+    <t>Hanna Sikorska</t>
+  </si>
+  <si>
+    <t>Oliwia Czarnecka</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalczyk</t>
+  </si>
+  <si>
+    <t>Antoni Lewandowski</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Anna Król</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
+  </si>
+  <si>
+    <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Zysk" i oblicz: Zysk = Cena sprzedaży - Cena z magazynu</t>
+  </si>
+  <si>
+    <t>3. Dodaj kolumnę "Prowizja sprzedawcy" z warunkiem:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   JEŻELI(cena_sprzedazy &gt; 1000; zysk * 0,2; zysk * 0,1)</t>
+  </si>
+  <si>
+    <t>4. Oblicz w osobnych komórkach poniżej:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży (funkcja SUMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży dla produktów &gt; 1000 zł (funkcja SUMA.JEŻELI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży dla produktów &lt;= 1000 zł (funkcja SUMA.JEŻELI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży dla woj. mazowieckiego (funkcja SUMA.JEŻELI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Suma ceny sprzedaży w miesiącu "styczeń" (funkcja SUMA.JEŻELI)</t>
+  </si>
+  <si>
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>Miesiąc</t>
+  </si>
+  <si>
+    <t>Opis produktu</t>
+  </si>
+  <si>
+    <t>Cena z magazynu</t>
+  </si>
+  <si>
+    <t>Cena sprzedaży</t>
+  </si>
+  <si>
+    <t>Sprzedawca</t>
+  </si>
+  <si>
+    <t>Województwo</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>Natalia Malinowska</t>
-  </si>
-  <si>
-    <t>Zuzanna Malinowska</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 24 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 24 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Mazur</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Borkowska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Natalia Król</t>
-  </si>
-  <si>
-    <t>23.08.2003</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalski</t>
-  </si>
-  <si>
-    <t>12.02.1993</t>
-  </si>
-  <si>
-    <t>Antoni Wojciechowski</t>
-  </si>
-  <si>
-    <t>07.02.1996</t>
-  </si>
-  <si>
-    <t>Mikołaj Grabowski</t>
-  </si>
-  <si>
-    <t>20.05.1975</t>
-  </si>
-  <si>
-    <t>Zuzanna Piekarska</t>
-  </si>
-  <si>
-    <t>12.05.2002</t>
-  </si>
-  <si>
-    <t>Julia Urbaniak</t>
-  </si>
-  <si>
-    <t>27.07.1992</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>08.11.1980</t>
-  </si>
-  <si>
-    <t>04.03.2003</t>
-  </si>
-  <si>
-    <t>Antoni Jankowski</t>
-  </si>
-  <si>
-    <t>07.09.1977</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>26.04.1994</t>
-  </si>
-  <si>
-    <t>Szymon Wójcik</t>
-  </si>
-  <si>
-    <t>28.10.1998</t>
-  </si>
-  <si>
-    <t>Jan Kaczmarek</t>
-  </si>
-  <si>
-    <t>16.01.1993</t>
-  </si>
-  <si>
-    <t>Julia Borkowska</t>
-  </si>
-  <si>
-    <t>09.04.1983</t>
-  </si>
-  <si>
-    <t>Aleksander Woźniak</t>
-  </si>
-  <si>
-    <t>19.11.1994</t>
-  </si>
-  <si>
-    <t>Szymon Wiśniewski</t>
-  </si>
-  <si>
-    <t>14.09.1998</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalski</t>
-  </si>
-  <si>
-    <t>04.05.1980</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
-  </si>
-  <si>
-    <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Zysk" i oblicz: Zysk = Cena sprzedaży - Cena z magazynu</t>
-  </si>
-  <si>
-    <t>3. Dodaj kolumnę "Prowizja sprzedawcy" z warunkiem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   JEŻELI(cena_sprzedazy &gt; 1000; zysk * 0,2; zysk * 0,1)</t>
-  </si>
-  <si>
-    <t>4. Oblicz w osobnych komórkach poniżej:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży (funkcja SUMA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży dla produktów &gt; 1000 zł (funkcja SUMA.JEŻELI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży dla produktów &lt;= 1000 zł (funkcja SUMA.JEŻELI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży dla woj. mazowieckiego (funkcja SUMA.JEŻELI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Suma ceny sprzedaży w miesiącu "styczeń" (funkcja SUMA.JEŻELI)</t>
-  </si>
-  <si>
-    <t>Lp.</t>
-  </si>
-  <si>
-    <t>Miesiąc</t>
-  </si>
-  <si>
-    <t>Opis produktu</t>
-  </si>
-  <si>
-    <t>Cena z magazynu</t>
-  </si>
-  <si>
-    <t>Cena sprzedaży</t>
-  </si>
-  <si>
-    <t>Sprzedawca</t>
-  </si>
-  <si>
-    <t>Województwo</t>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>kwiecień</t>
   </si>
   <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>śląskie</t>
   </si>
   <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
     <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -712,7 +716,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,12 +739,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -782,13 +780,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1095,7 +1092,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1200,16 +1197,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
@@ -1221,19 +1218,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1242,19 +1239,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1263,19 +1260,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1284,16 +1281,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
@@ -1305,19 +1302,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1326,19 +1323,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1347,19 +1344,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
         <v>5</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1371,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
@@ -1380,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1389,19 +1386,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
         <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1410,19 +1407,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1431,19 +1428,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1456,6 +1453,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1489,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1509,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1519,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1549,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.2</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.7</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.5</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6.7</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.8</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.9</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.3</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>17.8</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9.7</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1658,10 +1661,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1674,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1699,27 +1702,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1727,85 +1730,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>8.46</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>10.62</v>
       </c>
       <c r="C15" s="3">
-        <v>48</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>20.25</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>21.75</v>
       </c>
       <c r="C16" s="3">
         <v>33</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>25.1</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>25.5</v>
       </c>
       <c r="C17" s="3">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>5.46</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>26.2</v>
       </c>
       <c r="C18" s="3">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>27.66</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>27.29</v>
       </c>
       <c r="C19" s="3">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1814,8 +1817,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1823,85 +1826,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>17.11</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>19.22</v>
       </c>
       <c r="C24" s="3">
-        <v>50</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4.13</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>21.059999999999999</v>
       </c>
       <c r="C25" s="3">
-        <v>30</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>12.41</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>14.98</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>25.6</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>16.78</v>
       </c>
       <c r="C27" s="3">
-        <v>37</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>23.09</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>8.12</v>
       </c>
       <c r="C28" s="3">
-        <v>21</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1910,8 +1913,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1919,89 +1922,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3.07</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>26.76</v>
       </c>
       <c r="C33" s="3">
-        <v>19</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>21.45</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>26.76</v>
       </c>
       <c r="C34" s="3">
-        <v>22</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>8.77</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>11.9</v>
       </c>
       <c r="C35" s="3">
-        <v>13</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>7.78</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9.21</v>
       </c>
       <c r="C36" s="3">
-        <v>44</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>11.63</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>6.72</v>
       </c>
       <c r="C37" s="3">
-        <v>43</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2021,10 +2032,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2044,96 +2055,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
@@ -2148,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2156,31 +2167,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
         <v>6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2188,31 +2199,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2220,31 +2231,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
       <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2252,136 +2263,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2408,249 +2355,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>95</v>
+      <c r="A1" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="7">
-        <v>13052</v>
+        <v>101</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12772</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6752</v>
+        <v>102</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6911</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5615</v>
+        <v>103</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C13" s="8">
+        <v>14761</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2717</v>
+        <v>104</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10072</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5512</v>
+        <v>105</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11862</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="7">
-        <v>14205</v>
+        <v>106</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C16" s="8">
+        <v>12513</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13571</v>
+        <v>107</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11735</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8027</v>
+        <v>108</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5356</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9953</v>
+        <v>109</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4227</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7">
-        <v>12711</v>
+        <v>110</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6994</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4065</v>
+        <v>111</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C21" s="8">
+        <v>10357</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12695</v>
+        <v>112</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5322</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2997</v>
+        <v>113</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4838</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4481</v>
+        <v>114</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8242</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="7">
-        <v>11556</v>
+        <v>115</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6362</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="7">
-        <v>13568</v>
+        <v>116</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3328</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>135</v>
+      <c r="A29" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B32" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2667,10 +2614,185 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3">
+        <v>161</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="3">
+        <v>182</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3">
+        <v>188</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="3">
+        <v>135</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3">
+        <v>103</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="3">
+        <v>98</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="3">
+        <v>97</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3">
+        <v>126</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="3">
+        <v>187</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3">
+        <v>153</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3">
+        <v>101</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="3">
+        <v>132</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2685,86 +2807,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>139</v>
+      <c r="A1" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2772,22 +2894,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="8">
+        <v>1380</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1904</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="7">
-        <v>1183</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1621</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2795,22 +2917,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="8">
+        <v>510</v>
+      </c>
+      <c r="E17" s="8">
+        <v>622</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="7">
-        <v>1499</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2009</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2818,22 +2940,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="8">
+        <v>1156</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1341</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="7">
-        <v>1027</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1140</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2841,19 +2963,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1068</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1367</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D19" s="7">
-        <v>588</v>
-      </c>
-      <c r="E19" s="7">
-        <v>694</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>170</v>
@@ -2864,22 +2986,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="8">
+        <v>502</v>
+      </c>
+      <c r="E20" s="8">
+        <v>577</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="7">
-        <v>725</v>
-      </c>
-      <c r="E20" s="7">
-        <v>964</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2887,22 +3009,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1344</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1868</v>
+      <c r="D21" s="8">
+        <v>1115</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1416</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2910,22 +3032,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1153</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="7">
-        <v>1372</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1907</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2933,22 +3055,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1245</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1731</v>
+        <v>178</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1424</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1880</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2956,22 +3078,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1012</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1305</v>
+        <v>180</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1289</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1689</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2979,19 +3101,19 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="8">
+        <v>743</v>
+      </c>
+      <c r="E25" s="8">
+        <v>958</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D25" s="7">
-        <v>804</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1005</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>183</v>
@@ -3002,22 +3124,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="8">
+        <v>1004</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1375</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="7">
-        <v>618</v>
-      </c>
-      <c r="E26" s="7">
-        <v>698</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3025,22 +3147,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="7">
-        <v>516</v>
-      </c>
-      <c r="E27" s="7">
-        <v>630</v>
+        <v>186</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1426</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1811</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3048,22 +3170,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1367</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1709</v>
+        <v>180</v>
+      </c>
+      <c r="D28" s="8">
+        <v>533</v>
+      </c>
+      <c r="E28" s="8">
+        <v>624</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>189</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3071,22 +3193,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1447</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1693</v>
+        <v>178</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1250</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1675</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3094,22 +3216,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1074</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1203</v>
+        <v>173</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1387</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1734</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3117,22 +3239,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="7">
-        <v>888</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1243</v>
+        <v>191</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1469</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1631</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3140,22 +3262,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1402</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1598</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="7">
-        <v>1372</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1742</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3163,22 +3285,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1088</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1240</v>
+        <v>180</v>
+      </c>
+      <c r="D33" s="8">
+        <v>981</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1226</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3186,22 +3308,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="8">
+        <v>913</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1023</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1058</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1365</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3209,22 +3331,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1215</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1470</v>
+        <v>199</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1438</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1956</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3232,19 +3354,19 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1424</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1851</v>
+        <v>194</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1126</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1329</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>183</v>
@@ -3255,22 +3377,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1012</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1204</v>
+        <v>191</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1115</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1338</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3278,22 +3400,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1150</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1518</v>
+        <v>203</v>
+      </c>
+      <c r="D38" s="8">
+        <v>777</v>
+      </c>
+      <c r="E38" s="8">
+        <v>870</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3301,22 +3423,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1251</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1614</v>
+        <v>173</v>
+      </c>
+      <c r="D39" s="8">
+        <v>770</v>
+      </c>
+      <c r="E39" s="8">
+        <v>955</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3324,22 +3446,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="7">
-        <v>611</v>
-      </c>
-      <c r="E40" s="7">
-        <v>776</v>
+      <c r="D40" s="8">
+        <v>1218</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1462</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3347,22 +3469,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1360</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1632</v>
+        <v>161</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1317</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1712</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3370,58 +3492,127 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1934</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D42" s="7">
-        <v>537</v>
-      </c>
-      <c r="E42" s="7">
-        <v>687</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" s="3" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="8">
+        <v>915</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1199</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="C44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="8">
+        <v>996</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1305</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1312</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1797</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>211</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
